--- a/Теория информации/TI.xlsx
+++ b/Теория информации/TI.xlsx
@@ -56,8 +56,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -352,45 +356,210 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A4:B9"/>
+  <dimension ref="A2:O13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="4" spans="1:2">
+    <row r="2" spans="1:15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>0</v>
       </c>
       <c r="B4">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="D4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0.8</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.65</v>
+      </c>
+      <c r="J4">
+        <f>-I4*LOG(I4,2)</f>
+        <v>0.40396744488507558</v>
+      </c>
+      <c r="L4">
+        <f>I6*I6</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="M4">
+        <v>11</v>
+      </c>
+      <c r="N4">
+        <f>L4*4</f>
+        <v>0.09</v>
+      </c>
+      <c r="O4">
+        <f>-L4*LOG(L4,2)</f>
+        <v>0.12316345173747927</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>1</v>
       </c>
       <c r="B5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="D5" s="1">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.7</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ref="J5:J6" si="0">-I5*LOG(I5,2)</f>
+        <v>0.46438561897747244</v>
+      </c>
+      <c r="L5">
+        <f>I6*I5</f>
+        <v>0.03</v>
+      </c>
+      <c r="M5">
+        <v>12</v>
+      </c>
+      <c r="O5">
+        <f t="shared" ref="O5:O9" si="1">-L5*LOG(L5,2)</f>
+        <v>0.15176681067160708</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>2</v>
       </c>
       <c r="B6">
         <v>0.65</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="D6" s="1">
+        <v>0.4</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="J6">
+        <f t="shared" si="0"/>
+        <v>0.41054483912493089</v>
+      </c>
+      <c r="L6">
+        <f>I6*I4</f>
+        <v>9.7500000000000003E-2</v>
+      </c>
+      <c r="M6">
+        <v>13</v>
+      </c>
+      <c r="N6">
+        <f>L6*3</f>
+        <v>0.29249999999999998</v>
+      </c>
+      <c r="O6">
+        <f t="shared" si="1"/>
+        <v>0.32744926216396641</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="L7">
+        <f>I5*I5</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="M7">
+        <v>22</v>
+      </c>
+      <c r="O7">
+        <f t="shared" si="1"/>
+        <v>0.18575424759098902</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="L8">
+        <f>I5*I4</f>
+        <v>0.13</v>
+      </c>
+      <c r="M8">
+        <v>23</v>
+      </c>
+      <c r="N8">
+        <f>L8*2</f>
+        <v>0.26</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0.38264414131237223</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="B9">
         <f>B4*LOG(1/B4,2)+B5*LOG(1/B5,2)+B6*LOG(1/B6,2)</f>
         <v>1.278897902987479</v>
       </c>
+      <c r="D9" s="1">
+        <f>-(D4*LOG(D4,2)+D6*LOG(D6,2))</f>
+        <v>0.86096404744368105</v>
+      </c>
+      <c r="E9" s="1">
+        <f>-(E4*LOG(E4,2)+E5*LOG(E5,2))</f>
+        <v>0.77863215415975162</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" ref="E9:F9" si="2">-(F4*LOG(F4,2)+F6*LOG(F6,2))</f>
+        <v>0.77437216598845993</v>
+      </c>
+      <c r="G9" s="1">
+        <f>D9+E9+F9</f>
+        <v>2.4139683675918926</v>
+      </c>
+      <c r="L9">
+        <f>I4*I4</f>
+        <v>0.42250000000000004</v>
+      </c>
+      <c r="M9">
+        <v>33</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0.52515767835059834</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="B13">
+        <f>LOG(32,2)</f>
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="D2:G2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Теория информации/TI.xlsx
+++ b/Теория информации/TI.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>p1</t>
   </si>
@@ -24,11 +24,20 @@
   <si>
     <t>p3</t>
   </si>
+  <si>
+    <t>plogp</t>
+  </si>
+  <si>
+    <t>q</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="1">
     <font>
       <sz val="10"/>
@@ -44,7 +53,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -52,16 +61,86 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -356,23 +435,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:O13"/>
+  <dimension ref="A2:W40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="W24" sqref="W24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="2" spans="1:15">
-      <c r="A2" s="2"/>
+    <row r="2" spans="1:23">
+      <c r="A2" s="2">
+        <v>15</v>
+      </c>
       <c r="B2" s="2"/>
-      <c r="D2" s="2"/>
+      <c r="D2" s="2">
+        <v>25</v>
+      </c>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="I2" s="2">
+        <v>35</v>
+      </c>
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="R2" s="2">
+        <v>45</v>
+      </c>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+    </row>
+    <row r="3" spans="1:23">
+      <c r="T3" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -387,6 +492,9 @@
       </c>
       <c r="F4" s="1">
         <v>0.1</v>
+      </c>
+      <c r="H4" s="8">
+        <v>3</v>
       </c>
       <c r="I4" s="1">
         <v>0.65</v>
@@ -410,8 +518,25 @@
         <f>-L4*LOG(L4,2)</f>
         <v>0.12316345173747927</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4" s="1">
+        <f>R4*S4</f>
+        <v>0.6</v>
+      </c>
+      <c r="U4" s="9">
+        <f>-R4*LOG(R4,2)</f>
+        <v>0.44217935649972373</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -426,6 +551,9 @@
       </c>
       <c r="F5" s="1">
         <v>0.7</v>
+      </c>
+      <c r="H5" s="8">
+        <v>2</v>
       </c>
       <c r="I5" s="1">
         <v>0.2</v>
@@ -445,8 +573,25 @@
         <f t="shared" ref="O5:O9" si="1">-L5*LOG(L5,2)</f>
         <v>0.15176681067160708</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="S5">
+        <v>2</v>
+      </c>
+      <c r="T5" s="1">
+        <f t="shared" ref="T5:T7" si="2">R5*S5</f>
+        <v>0.4</v>
+      </c>
+      <c r="U5" s="9">
+        <f>-R5*LOG(R5,2)</f>
+        <v>0.46438561897747244</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -461,6 +606,9 @@
       </c>
       <c r="F6" s="1">
         <v>0.6</v>
+      </c>
+      <c r="H6" s="8">
+        <v>1</v>
       </c>
       <c r="I6" s="1">
         <v>0.15</v>
@@ -484,8 +632,25 @@
         <f t="shared" si="1"/>
         <v>0.32744926216396641</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="Q6">
+        <v>4</v>
+      </c>
+      <c r="R6" s="1">
+        <v>0.15</v>
+      </c>
+      <c r="S6">
+        <v>3</v>
+      </c>
+      <c r="T6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="U6" s="9">
+        <f>-R6*LOG(R6,2)</f>
+        <v>0.41054483912493089</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23">
       <c r="L7">
         <f>I5*I5</f>
         <v>4.0000000000000008E-2</v>
@@ -497,8 +662,25 @@
         <f t="shared" si="1"/>
         <v>0.18575424759098902</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="Q7">
+        <v>3</v>
+      </c>
+      <c r="R7" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="S7">
+        <v>4</v>
+      </c>
+      <c r="T7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="U7" s="9">
+        <f>-R7*LOG(R7,2)</f>
+        <v>0.21609640474436814</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23">
       <c r="L8">
         <f>I5*I4</f>
         <v>0.13</v>
@@ -514,8 +696,16 @@
         <f t="shared" si="1"/>
         <v>0.38264414131237223</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="T8" s="1">
+        <f>SUM(T4:T7)</f>
+        <v>1.65</v>
+      </c>
+      <c r="U8" s="9">
+        <f>SUM(U4:U7)</f>
+        <v>1.533206219346495</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23">
       <c r="B9">
         <f>B4*LOG(1/B4,2)+B5*LOG(1/B5,2)+B6*LOG(1/B6,2)</f>
         <v>1.278897902987479</v>
@@ -529,7 +719,7 @@
         <v>0.77863215415975162</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="E9:F9" si="2">-(F4*LOG(F4,2)+F6*LOG(F6,2))</f>
+        <f t="shared" ref="F9" si="3">-(F4*LOG(F4,2)+F6*LOG(F6,2))</f>
         <v>0.77437216598845993</v>
       </c>
       <c r="G9" s="1">
@@ -544,20 +734,931 @@
         <v>33</v>
       </c>
       <c r="O9">
-        <f t="shared" si="1"/>
+        <f>-L9*LOG(L9,2)</f>
         <v>0.52515767835059834</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="11" spans="1:23" ht="13.5" thickBot="1">
+      <c r="M11" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q11">
+        <v>11</v>
+      </c>
+      <c r="R11" s="9">
+        <f>$R$4*$R$4</f>
+        <v>0.36</v>
+      </c>
+      <c r="S11">
+        <v>2</v>
+      </c>
+      <c r="T11" s="9">
+        <f>R11*S11</f>
+        <v>0.72</v>
+      </c>
+      <c r="U11" s="9">
+        <f>-R11*LOG(R11,2)</f>
+        <v>0.53061522779966841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23">
+      <c r="I12" s="3">
+        <v>333</v>
+      </c>
+      <c r="J12" s="9">
+        <f>$I$4*$I$4*$I$4</f>
+        <v>0.27462500000000006</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12" s="9">
+        <f>J12*K12</f>
+        <v>0.54925000000000013</v>
+      </c>
+      <c r="M12" s="9">
+        <f>-J12*LOG(J12,2)</f>
+        <v>0.51202873639183344</v>
+      </c>
+      <c r="Q12">
+        <v>12</v>
+      </c>
+      <c r="R12" s="9">
+        <f>$R$4*$R$5</f>
+        <v>0.12</v>
+      </c>
+      <c r="S12">
+        <v>2</v>
+      </c>
+      <c r="T12" s="9">
+        <f t="shared" ref="T12:T26" si="4">R12*S12</f>
+        <v>0.24</v>
+      </c>
+      <c r="U12" s="9">
+        <f t="shared" ref="U12:U26" si="5">-R12*LOG(R12,2)</f>
+        <v>0.36706724268642821</v>
+      </c>
+      <c r="V12" s="9">
+        <f>SUM(R11:R12)</f>
+        <v>0.48</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23">
       <c r="B13">
         <f>LOG(32,2)</f>
         <v>5</v>
       </c>
+      <c r="I13" s="4">
+        <v>332</v>
+      </c>
+      <c r="J13" s="9">
+        <f>$I$4*$I$4*$I$5</f>
+        <v>8.450000000000002E-2</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13" s="9">
+        <f t="shared" ref="L13:L38" si="6">J13*K13</f>
+        <v>0.25350000000000006</v>
+      </c>
+      <c r="M13" s="9">
+        <f>-J13*LOG(J13,2)</f>
+        <v>0.30123445968810186</v>
+      </c>
+      <c r="N13" s="9">
+        <f>SUM(J12:J15)</f>
+        <v>0.52812500000000007</v>
+      </c>
+      <c r="Q13">
+        <v>21</v>
+      </c>
+      <c r="R13" s="9">
+        <f>$R$5*$R$4</f>
+        <v>0.12</v>
+      </c>
+      <c r="S13">
+        <v>3</v>
+      </c>
+      <c r="T13" s="9">
+        <f t="shared" si="4"/>
+        <v>0.36</v>
+      </c>
+      <c r="U13" s="9">
+        <f t="shared" si="5"/>
+        <v>0.36706724268642821</v>
+      </c>
+      <c r="V13" s="9">
+        <f>SUM(R13:R26)</f>
+        <v>0.51999999999999991</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23">
+      <c r="I14" s="5">
+        <v>233</v>
+      </c>
+      <c r="J14" s="9">
+        <f>$I$5*$I$4*$I$4</f>
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14" s="9">
+        <f t="shared" si="6"/>
+        <v>0.2535</v>
+      </c>
+      <c r="M14" s="9">
+        <f>-J14*LOG(J14,2)</f>
+        <v>0.30123445968810181</v>
+      </c>
+      <c r="N14" s="9">
+        <f>SUM(J16:J38)</f>
+        <v>0.47187500000000016</v>
+      </c>
+      <c r="Q14">
+        <v>14</v>
+      </c>
+      <c r="R14" s="9">
+        <f>$R$4*$R$6</f>
+        <v>0.09</v>
+      </c>
+      <c r="S14">
+        <v>4</v>
+      </c>
+      <c r="T14" s="9">
+        <f t="shared" si="4"/>
+        <v>0.36</v>
+      </c>
+      <c r="U14" s="9">
+        <f t="shared" si="5"/>
+        <v>0.31265380694991712</v>
+      </c>
+      <c r="V14" s="9">
+        <f>SUM(R14:R26)</f>
+        <v>0.40000000000000013</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23">
+      <c r="I15" s="6">
+        <v>323</v>
+      </c>
+      <c r="J15" s="9">
+        <f>$I$4*$I$5*$I$4</f>
+        <v>8.4500000000000006E-2</v>
+      </c>
+      <c r="K15">
+        <v>4</v>
+      </c>
+      <c r="L15" s="9">
+        <f t="shared" si="6"/>
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="M15" s="9">
+        <f>-J15*LOG(J15,2)</f>
+        <v>0.30123445968810181</v>
+      </c>
+      <c r="Q15">
+        <v>41</v>
+      </c>
+      <c r="R15" s="9">
+        <f>$R$6*$R$4</f>
+        <v>0.09</v>
+      </c>
+      <c r="S15">
+        <v>4</v>
+      </c>
+      <c r="T15" s="9">
+        <f t="shared" si="4"/>
+        <v>0.36</v>
+      </c>
+      <c r="U15" s="9">
+        <f t="shared" si="5"/>
+        <v>0.31265380694991712</v>
+      </c>
+      <c r="V15" s="9"/>
+    </row>
+    <row r="16" spans="1:23">
+      <c r="I16" s="4">
+        <v>133</v>
+      </c>
+      <c r="J16" s="9">
+        <f>$I$6*$I$4*$I$4</f>
+        <v>6.3375000000000001E-2</v>
+      </c>
+      <c r="K16">
+        <v>4</v>
+      </c>
+      <c r="L16" s="9">
+        <f t="shared" si="6"/>
+        <v>0.2535</v>
+      </c>
+      <c r="M16" s="9">
+        <f>-J16*LOG(J16,2)</f>
+        <v>0.25222884628287312</v>
+      </c>
+      <c r="N16" s="9">
+        <f>SUM(J15:J18)</f>
+        <v>0.27462500000000001</v>
+      </c>
+      <c r="Q16">
+        <v>22</v>
+      </c>
+      <c r="R16" s="9">
+        <f>$R$5*$R$5</f>
+        <v>4.0000000000000008E-2</v>
+      </c>
+      <c r="S16">
+        <v>3</v>
+      </c>
+      <c r="T16" s="9">
+        <f t="shared" si="4"/>
+        <v>0.12000000000000002</v>
+      </c>
+      <c r="U16" s="9">
+        <f t="shared" si="5"/>
+        <v>0.18575424759098902</v>
+      </c>
+      <c r="V16" s="9">
+        <f>SUM(R16:R26)</f>
+        <v>0.22000000000000003</v>
+      </c>
+      <c r="W16" s="9">
+        <f>SUM(R16:R18)</f>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="17" spans="9:23">
+      <c r="I17" s="5">
+        <v>313</v>
+      </c>
+      <c r="J17" s="9">
+        <f>$I$4*$I$6*$I$4</f>
+        <v>6.3375000000000001E-2</v>
+      </c>
+      <c r="K17">
+        <v>4</v>
+      </c>
+      <c r="L17" s="9">
+        <f t="shared" si="6"/>
+        <v>0.2535</v>
+      </c>
+      <c r="M17" s="9">
+        <f>-J17*LOG(J17,2)</f>
+        <v>0.25222884628287312</v>
+      </c>
+      <c r="N17" s="9">
+        <f>SUM(J19:J38)</f>
+        <v>0.28175</v>
+      </c>
+      <c r="Q17">
+        <v>13</v>
+      </c>
+      <c r="R17" s="9">
+        <f>$R$4*$R$7</f>
+        <v>0.03</v>
+      </c>
+      <c r="S17">
+        <v>4</v>
+      </c>
+      <c r="T17" s="9">
+        <f t="shared" si="4"/>
+        <v>0.12</v>
+      </c>
+      <c r="U17" s="9">
+        <f t="shared" si="5"/>
+        <v>0.15176681067160708</v>
+      </c>
+    </row>
+    <row r="18" spans="9:23">
+      <c r="I18" s="6">
+        <v>331</v>
+      </c>
+      <c r="J18" s="9">
+        <f>$I$4*$I$4*$I$6</f>
+        <v>6.3375000000000001E-2</v>
+      </c>
+      <c r="K18">
+        <v>4</v>
+      </c>
+      <c r="L18" s="9">
+        <f t="shared" si="6"/>
+        <v>0.2535</v>
+      </c>
+      <c r="M18" s="9">
+        <f>-J18*LOG(J18,2)</f>
+        <v>0.25222884628287312</v>
+      </c>
+      <c r="Q18">
+        <v>24</v>
+      </c>
+      <c r="R18" s="9">
+        <f>$R$5*$R$6</f>
+        <v>0.03</v>
+      </c>
+      <c r="S18">
+        <v>4</v>
+      </c>
+      <c r="T18" s="9">
+        <f t="shared" si="4"/>
+        <v>0.12</v>
+      </c>
+      <c r="U18" s="9">
+        <f t="shared" si="5"/>
+        <v>0.15176681067160708</v>
+      </c>
+    </row>
+    <row r="19" spans="9:23">
+      <c r="I19" s="4">
+        <v>223</v>
+      </c>
+      <c r="J19" s="9">
+        <f>$I$5*$I$5*$I$4</f>
+        <v>2.6000000000000006E-2</v>
+      </c>
+      <c r="K19">
+        <v>6</v>
+      </c>
+      <c r="L19" s="9">
+        <f t="shared" si="6"/>
+        <v>0.15600000000000003</v>
+      </c>
+      <c r="M19" s="9">
+        <f>-J19*LOG(J19,2)</f>
+        <v>0.13689895872954588</v>
+      </c>
+      <c r="Q19">
+        <v>31</v>
+      </c>
+      <c r="R19" s="9">
+        <f>$R$7*$R$4</f>
+        <v>0.03</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19" s="9">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="U19" s="9">
+        <f t="shared" si="5"/>
+        <v>0.15176681067160708</v>
+      </c>
+      <c r="W19" s="9">
+        <f>SUM(R19:R26)</f>
+        <v>0.12000000000000002</v>
+      </c>
+    </row>
+    <row r="20" spans="9:23" ht="13.5" thickBot="1">
+      <c r="I20" s="7">
+        <v>232</v>
+      </c>
+      <c r="J20" s="9">
+        <f>$I$5*$I$4*$I$5</f>
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="K20">
+        <v>6</v>
+      </c>
+      <c r="L20" s="9">
+        <f t="shared" si="6"/>
+        <v>0.15600000000000003</v>
+      </c>
+      <c r="M20" s="9">
+        <f>-J20*LOG(J20,2)</f>
+        <v>0.13689895872954588</v>
+      </c>
+      <c r="N20" s="9">
+        <f>SUM(J19:J24)</f>
+        <v>0.13650000000000001</v>
+      </c>
+      <c r="Q20">
+        <v>42</v>
+      </c>
+      <c r="R20" s="9">
+        <f>$R$6*$R$5</f>
+        <v>0.03</v>
+      </c>
+      <c r="S20">
+        <v>5</v>
+      </c>
+      <c r="T20" s="9">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="U20" s="9">
+        <f t="shared" si="5"/>
+        <v>0.15176681067160708</v>
+      </c>
+    </row>
+    <row r="21" spans="9:23">
+      <c r="I21" s="3">
+        <v>322</v>
+      </c>
+      <c r="J21" s="9">
+        <f>$I$4*$I$5*$I$5</f>
+        <v>2.6000000000000002E-2</v>
+      </c>
+      <c r="K21">
+        <v>6</v>
+      </c>
+      <c r="L21" s="9">
+        <f t="shared" si="6"/>
+        <v>0.15600000000000003</v>
+      </c>
+      <c r="M21" s="9">
+        <f>-J21*LOG(J21,2)</f>
+        <v>0.13689895872954588</v>
+      </c>
+      <c r="N21" s="9">
+        <f>SUM(J25:J38)</f>
+        <v>0.14525000000000002</v>
+      </c>
+      <c r="Q21">
+        <v>44</v>
+      </c>
+      <c r="R21" s="9">
+        <f>$R$6*$R$6</f>
+        <v>2.2499999999999999E-2</v>
+      </c>
+      <c r="S21">
+        <v>5</v>
+      </c>
+      <c r="T21" s="9">
+        <f t="shared" si="4"/>
+        <v>0.11249999999999999</v>
+      </c>
+      <c r="U21" s="9">
+        <f t="shared" si="5"/>
+        <v>0.12316345173747927</v>
+      </c>
+      <c r="W21" s="9">
+        <f>SUM(R21:R22)</f>
+        <v>3.2500000000000001E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="9:23">
+      <c r="I22" s="4">
+        <v>132</v>
+      </c>
+      <c r="J22" s="9">
+        <f>$I$6*$I$4*$I$5</f>
+        <v>1.9500000000000003E-2</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+      <c r="L22" s="9">
+        <f t="shared" si="6"/>
+        <v>0.11700000000000002</v>
+      </c>
+      <c r="M22" s="9">
+        <f>-J22*LOG(J22,2)</f>
+        <v>0.11076745028309688</v>
+      </c>
+      <c r="Q22">
+        <v>23</v>
+      </c>
+      <c r="R22" s="9">
+        <f>$R$5*$R$7</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="S22">
+        <v>6</v>
+      </c>
+      <c r="T22" s="9">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000012E-2</v>
+      </c>
+      <c r="U22" s="9">
+        <f t="shared" si="5"/>
+        <v>6.6438561897747259E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="9:23">
+      <c r="I23" s="5">
+        <v>312</v>
+      </c>
+      <c r="J23" s="9">
+        <f>$I$4*$I$6*$I$5</f>
+        <v>1.9500000000000003E-2</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23" s="9">
+        <f t="shared" si="6"/>
+        <v>0.11700000000000002</v>
+      </c>
+      <c r="M23" s="9">
+        <f>-J23*LOG(J23,2)</f>
+        <v>0.11076745028309688</v>
+      </c>
+      <c r="Q23">
+        <v>32</v>
+      </c>
+      <c r="R23" s="9">
+        <f>$R$7*$R$5</f>
+        <v>1.0000000000000002E-2</v>
+      </c>
+      <c r="S23">
+        <v>6</v>
+      </c>
+      <c r="T23" s="9">
+        <f t="shared" si="4"/>
+        <v>6.0000000000000012E-2</v>
+      </c>
+      <c r="U23" s="9">
+        <f t="shared" si="5"/>
+        <v>6.6438561897747259E-2</v>
+      </c>
+      <c r="W23" s="9">
+        <f>SUM(R23:R26)</f>
+        <v>2.7500000000000004E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="9:23">
+      <c r="I24" s="6">
+        <v>123</v>
+      </c>
+      <c r="J24" s="9">
+        <f>$I$6*$I$5*$I$4</f>
+        <v>1.95E-2</v>
+      </c>
+      <c r="K24">
+        <v>6</v>
+      </c>
+      <c r="L24" s="9">
+        <f t="shared" si="6"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="M24" s="9">
+        <f>-J24*LOG(J24,2)</f>
+        <v>0.11076745028309687</v>
+      </c>
+      <c r="Q24">
+        <v>34</v>
+      </c>
+      <c r="R24" s="9">
+        <f>$R$7*$R$6</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="S24">
+        <v>7</v>
+      </c>
+      <c r="T24" s="9">
+        <f t="shared" si="4"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="U24" s="9">
+        <f t="shared" si="5"/>
+        <v>5.2941702667901769E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="9:23">
+      <c r="I25" s="4">
+        <v>213</v>
+      </c>
+      <c r="J25" s="9">
+        <f>$I$5*$I$6*$I$4</f>
+        <v>1.95E-2</v>
+      </c>
+      <c r="K25">
+        <v>6</v>
+      </c>
+      <c r="L25" s="9">
+        <f t="shared" si="6"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="M25" s="9">
+        <f>-J25*LOG(J25,2)</f>
+        <v>0.11076745028309687</v>
+      </c>
+      <c r="Q25">
+        <v>43</v>
+      </c>
+      <c r="R25" s="9">
+        <f>$R$6*$R$7</f>
+        <v>7.4999999999999997E-3</v>
+      </c>
+      <c r="S25">
+        <v>7</v>
+      </c>
+      <c r="T25" s="9">
+        <f t="shared" si="4"/>
+        <v>5.2499999999999998E-2</v>
+      </c>
+      <c r="U25" s="9">
+        <f t="shared" si="5"/>
+        <v>5.2941702667901769E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="9:23">
+      <c r="I26" s="5">
+        <v>231</v>
+      </c>
+      <c r="J26" s="9">
+        <f>$I$5*$I$4*$I$6</f>
+        <v>1.95E-2</v>
+      </c>
+      <c r="K26">
+        <v>6</v>
+      </c>
+      <c r="L26" s="9">
+        <f t="shared" si="6"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="M26" s="9">
+        <f>-J26*LOG(J26,2)</f>
+        <v>0.11076745028309687</v>
+      </c>
+      <c r="Q26">
+        <v>33</v>
+      </c>
+      <c r="R26" s="9">
+        <f>$R$7*$R$7</f>
+        <v>2.5000000000000005E-3</v>
+      </c>
+      <c r="S26">
+        <v>7</v>
+      </c>
+      <c r="T26" s="9">
+        <f t="shared" si="4"/>
+        <v>1.7500000000000002E-2</v>
+      </c>
+      <c r="U26" s="9">
+        <f t="shared" si="5"/>
+        <v>2.1609640474436816E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="9:23">
+      <c r="I27" s="6">
+        <v>321</v>
+      </c>
+      <c r="J27" s="9">
+        <f>$I$4*$I$5*$I$6</f>
+        <v>1.95E-2</v>
+      </c>
+      <c r="K27">
+        <v>6</v>
+      </c>
+      <c r="L27" s="9">
+        <f t="shared" si="6"/>
+        <v>0.11699999999999999</v>
+      </c>
+      <c r="M27" s="9">
+        <f>-J27*LOG(J27,2)</f>
+        <v>0.11076745028309687</v>
+      </c>
+      <c r="T27" s="9">
+        <f>SUM(T11:T26)</f>
+        <v>3.0550000000000002</v>
+      </c>
+      <c r="U27" s="9">
+        <f>SUM(U11:U26)</f>
+        <v>3.0664124386929901</v>
+      </c>
+    </row>
+    <row r="28" spans="9:23">
+      <c r="I28" s="4">
+        <v>113</v>
+      </c>
+      <c r="J28" s="9">
+        <f>$I$6*$I$6*$I$4</f>
+        <v>1.4624999999999999E-2</v>
+      </c>
+      <c r="K28">
+        <v>7</v>
+      </c>
+      <c r="L28" s="9">
+        <f t="shared" si="6"/>
+        <v>0.10237499999999999</v>
+      </c>
+      <c r="M28" s="9">
+        <f>-J28*LOG(J28,2)</f>
+        <v>8.9145511139275727E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="9:23" ht="13.5" thickBot="1">
+      <c r="I29" s="7">
+        <v>131</v>
+      </c>
+      <c r="J29" s="9">
+        <f>$I$6*$I$4*$I$6</f>
+        <v>1.4624999999999999E-2</v>
+      </c>
+      <c r="K29">
+        <v>7</v>
+      </c>
+      <c r="L29" s="9">
+        <f t="shared" si="6"/>
+        <v>0.10237499999999999</v>
+      </c>
+      <c r="M29" s="9">
+        <f>-J29*LOG(J29,2)</f>
+        <v>8.9145511139275727E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="9:23">
+      <c r="I30" s="3">
+        <v>311</v>
+      </c>
+      <c r="J30" s="9">
+        <f>$I$4*$I$6*$I$6</f>
+        <v>1.4624999999999999E-2</v>
+      </c>
+      <c r="K30">
+        <v>7</v>
+      </c>
+      <c r="L30" s="9">
+        <f t="shared" si="6"/>
+        <v>0.10237499999999999</v>
+      </c>
+      <c r="M30" s="9">
+        <f>-J30*LOG(J30,2)</f>
+        <v>8.9145511139275727E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="9:23">
+      <c r="I31" s="4">
+        <v>222</v>
+      </c>
+      <c r="J31" s="9">
+        <f>$I$5*$I$5*$I$5</f>
+        <v>8.0000000000000019E-3</v>
+      </c>
+      <c r="K31">
+        <v>7</v>
+      </c>
+      <c r="L31" s="9">
+        <f t="shared" si="6"/>
+        <v>5.6000000000000015E-2</v>
+      </c>
+      <c r="M31" s="9">
+        <f>-J31*LOG(J31,2)</f>
+        <v>5.5726274277296713E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="9:23">
+      <c r="I32" s="5">
+        <v>221</v>
+      </c>
+      <c r="J32" s="9">
+        <f>$I$5*$I$5*$I$6</f>
+        <v>6.000000000000001E-3</v>
+      </c>
+      <c r="K32">
+        <v>8</v>
+      </c>
+      <c r="L32" s="9">
+        <f t="shared" si="6"/>
+        <v>4.8000000000000008E-2</v>
+      </c>
+      <c r="M32" s="9">
+        <f>-J32*LOG(J32,2)</f>
+        <v>4.42849307036456E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="9:13">
+      <c r="I33" s="6">
+        <v>122</v>
+      </c>
+      <c r="J33" s="9">
+        <f>$I$6*$I$5*$I$5</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K33">
+        <v>8</v>
+      </c>
+      <c r="L33" s="9">
+        <f t="shared" si="6"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M33" s="9">
+        <f>-J33*LOG(J33,2)</f>
+        <v>4.4284930703645593E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="9:13">
+      <c r="I34" s="4">
+        <v>212</v>
+      </c>
+      <c r="J34" s="9">
+        <f>$I$5*$I$6*$I$5</f>
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="K34">
+        <v>8</v>
+      </c>
+      <c r="L34" s="9">
+        <f t="shared" si="6"/>
+        <v>4.8000000000000001E-2</v>
+      </c>
+      <c r="M34" s="9">
+        <f>-J34*LOG(J34,2)</f>
+        <v>4.4284930703645593E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="9:13">
+      <c r="I35" s="5">
+        <v>112</v>
+      </c>
+      <c r="J35" s="9">
+        <f>$I$6*$I$6*$I$5</f>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="K35">
+        <v>9</v>
+      </c>
+      <c r="L35" s="9">
+        <f t="shared" si="6"/>
+        <v>4.0499999999999994E-2</v>
+      </c>
+      <c r="M35" s="9">
+        <f>-J35*LOG(J35,2)</f>
+        <v>3.5081366774488983E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="9:13">
+      <c r="I36" s="6">
+        <v>121</v>
+      </c>
+      <c r="J36" s="9">
+        <f>$I$6*$I$5*$I$6</f>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="K36">
+        <v>9</v>
+      </c>
+      <c r="L36" s="9">
+        <f t="shared" si="6"/>
+        <v>4.0499999999999994E-2</v>
+      </c>
+      <c r="M36" s="9">
+        <f>-J36*LOG(J36,2)</f>
+        <v>3.5081366774488983E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="9:13">
+      <c r="I37" s="4">
+        <v>211</v>
+      </c>
+      <c r="J37" s="9">
+        <f>$I$5*$I$6*$I$6</f>
+        <v>4.4999999999999997E-3</v>
+      </c>
+      <c r="K37">
+        <v>9</v>
+      </c>
+      <c r="L37" s="9">
+        <f t="shared" si="6"/>
+        <v>4.0499999999999994E-2</v>
+      </c>
+      <c r="M37" s="9">
+        <f>-J37*LOG(J37,2)</f>
+        <v>3.5081366774488983E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="9:13" ht="13.5" thickBot="1">
+      <c r="I38" s="7">
+        <v>111</v>
+      </c>
+      <c r="J38" s="9">
+        <f>$I$6*$I$6*$I$6</f>
+        <v>3.375E-3</v>
+      </c>
+      <c r="K38">
+        <v>9</v>
+      </c>
+      <c r="L38" s="9">
+        <f t="shared" si="6"/>
+        <v>3.0374999999999999E-2</v>
+      </c>
+      <c r="M38" s="9">
+        <f>-J38*LOG(J38,2)</f>
+        <v>2.7711776640932839E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="9:13">
+      <c r="L40" s="9">
+        <f>SUM(L12:L38)</f>
+        <v>3.983750000000001</v>
+      </c>
+      <c r="M40" s="9">
+        <f>SUM(M12:M38)</f>
+        <v>3.8366937089624384</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <sortState ref="Q11:R26">
+    <sortCondition descending="1" ref="R11:R26"/>
+  </sortState>
+  <mergeCells count="4">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:G2"/>
+    <mergeCell ref="I2:N2"/>
+    <mergeCell ref="R2:U2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Теория информации/TI.xlsx
+++ b/Теория информации/TI.xlsx
@@ -131,9 +131,6 @@
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -141,6 +138,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -435,41 +435,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:W40"/>
+  <dimension ref="A2:X40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="W24" sqref="W24"/>
+      <selection activeCell="X28" sqref="X28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="2" spans="1:23">
-      <c r="A2" s="2">
+    <row r="2" spans="1:24">
+      <c r="A2" s="9">
         <v>15</v>
       </c>
-      <c r="B2" s="2"/>
-      <c r="D2" s="2">
+      <c r="B2" s="9"/>
+      <c r="D2" s="9">
         <v>25</v>
       </c>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="I2" s="2">
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="I2" s="9">
         <v>35</v>
       </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-      <c r="R2" s="2">
+      <c r="J2" s="9"/>
+      <c r="K2" s="9"/>
+      <c r="L2" s="9"/>
+      <c r="M2" s="9"/>
+      <c r="N2" s="9"/>
+      <c r="R2" s="9">
         <v>45</v>
       </c>
-      <c r="S2" s="2"/>
-      <c r="T2" s="2"/>
-      <c r="U2" s="2"/>
-    </row>
-    <row r="3" spans="1:23">
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="9"/>
+    </row>
+    <row r="3" spans="1:24">
       <c r="T3" t="s">
         <v>4</v>
       </c>
@@ -477,7 +477,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:23">
+    <row r="4" spans="1:24">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -493,7 +493,7 @@
       <c r="F4" s="1">
         <v>0.1</v>
       </c>
-      <c r="H4" s="8">
+      <c r="H4" s="7">
         <v>3</v>
       </c>
       <c r="I4" s="1">
@@ -531,12 +531,12 @@
         <f>R4*S4</f>
         <v>0.6</v>
       </c>
-      <c r="U4" s="9">
+      <c r="U4" s="8">
         <f>-R4*LOG(R4,2)</f>
         <v>0.44217935649972373</v>
       </c>
     </row>
-    <row r="5" spans="1:23">
+    <row r="5" spans="1:24">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -552,7 +552,7 @@
       <c r="F5" s="1">
         <v>0.7</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="7">
         <v>2</v>
       </c>
       <c r="I5" s="1">
@@ -570,7 +570,7 @@
         <v>12</v>
       </c>
       <c r="O5">
-        <f t="shared" ref="O5:O9" si="1">-L5*LOG(L5,2)</f>
+        <f t="shared" ref="O5:O8" si="1">-L5*LOG(L5,2)</f>
         <v>0.15176681067160708</v>
       </c>
       <c r="Q5">
@@ -586,12 +586,12 @@
         <f t="shared" ref="T5:T7" si="2">R5*S5</f>
         <v>0.4</v>
       </c>
-      <c r="U5" s="9">
+      <c r="U5" s="8">
         <f>-R5*LOG(R5,2)</f>
         <v>0.46438561897747244</v>
       </c>
     </row>
-    <row r="6" spans="1:23">
+    <row r="6" spans="1:24">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -607,7 +607,7 @@
       <c r="F6" s="1">
         <v>0.6</v>
       </c>
-      <c r="H6" s="8">
+      <c r="H6" s="7">
         <v>1</v>
       </c>
       <c r="I6" s="1">
@@ -645,12 +645,12 @@
         <f t="shared" si="2"/>
         <v>0.44999999999999996</v>
       </c>
-      <c r="U6" s="9">
+      <c r="U6" s="8">
         <f>-R6*LOG(R6,2)</f>
         <v>0.41054483912493089</v>
       </c>
     </row>
-    <row r="7" spans="1:23">
+    <row r="7" spans="1:24">
       <c r="L7">
         <f>I5*I5</f>
         <v>4.0000000000000008E-2</v>
@@ -669,18 +669,18 @@
         <v>0.05</v>
       </c>
       <c r="S7">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T7" s="1">
         <f t="shared" si="2"/>
-        <v>0.2</v>
-      </c>
-      <c r="U7" s="9">
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="U7" s="8">
         <f>-R7*LOG(R7,2)</f>
         <v>0.21609640474436814</v>
       </c>
     </row>
-    <row r="8" spans="1:23">
+    <row r="8" spans="1:24">
       <c r="L8">
         <f>I5*I4</f>
         <v>0.13</v>
@@ -698,14 +698,18 @@
       </c>
       <c r="T8" s="1">
         <f>SUM(T4:T7)</f>
-        <v>1.65</v>
-      </c>
-      <c r="U8" s="9">
+        <v>1.6</v>
+      </c>
+      <c r="U8" s="8">
         <f>SUM(U4:U7)</f>
         <v>1.533206219346495</v>
       </c>
-    </row>
-    <row r="9" spans="1:23">
+      <c r="X8">
+        <f>T8/U8</f>
+        <v>1.0435647728339994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24">
       <c r="B9">
         <f>B4*LOG(1/B4,2)+B5*LOG(1/B5,2)+B6*LOG(1/B6,2)</f>
         <v>1.278897902987479</v>
@@ -738,914 +742,918 @@
         <v>0.52515767835059834</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="13.5" thickBot="1">
+    <row r="11" spans="1:24" ht="13.5" thickBot="1">
       <c r="M11" t="s">
         <v>3</v>
       </c>
       <c r="Q11">
         <v>11</v>
       </c>
-      <c r="R11" s="9">
+      <c r="R11" s="8">
         <f>$R$4*$R$4</f>
         <v>0.36</v>
       </c>
       <c r="S11">
         <v>2</v>
       </c>
-      <c r="T11" s="9">
+      <c r="T11" s="8">
         <f>R11*S11</f>
         <v>0.72</v>
       </c>
-      <c r="U11" s="9">
+      <c r="U11" s="8">
         <f>-R11*LOG(R11,2)</f>
         <v>0.53061522779966841</v>
       </c>
     </row>
-    <row r="12" spans="1:23">
-      <c r="I12" s="3">
+    <row r="12" spans="1:24">
+      <c r="I12" s="2">
         <v>333</v>
       </c>
-      <c r="J12" s="9">
+      <c r="J12" s="8">
         <f>$I$4*$I$4*$I$4</f>
         <v>0.27462500000000006</v>
       </c>
       <c r="K12">
         <v>2</v>
       </c>
-      <c r="L12" s="9">
+      <c r="L12" s="8">
         <f>J12*K12</f>
         <v>0.54925000000000013</v>
       </c>
-      <c r="M12" s="9">
-        <f>-J12*LOG(J12,2)</f>
+      <c r="M12" s="8">
+        <f t="shared" ref="M12:M38" si="4">-J12*LOG(J12,2)</f>
         <v>0.51202873639183344</v>
       </c>
       <c r="Q12">
         <v>12</v>
       </c>
-      <c r="R12" s="9">
+      <c r="R12" s="8">
         <f>$R$4*$R$5</f>
         <v>0.12</v>
       </c>
       <c r="S12">
         <v>2</v>
       </c>
-      <c r="T12" s="9">
-        <f t="shared" ref="T12:T26" si="4">R12*S12</f>
+      <c r="T12" s="8">
+        <f t="shared" ref="T12:T26" si="5">R12*S12</f>
         <v>0.24</v>
       </c>
-      <c r="U12" s="9">
-        <f t="shared" ref="U12:U26" si="5">-R12*LOG(R12,2)</f>
+      <c r="U12" s="8">
+        <f t="shared" ref="U12:U26" si="6">-R12*LOG(R12,2)</f>
         <v>0.36706724268642821</v>
       </c>
-      <c r="V12" s="9">
+      <c r="V12" s="8">
         <f>SUM(R11:R12)</f>
         <v>0.48</v>
       </c>
     </row>
-    <row r="13" spans="1:23">
+    <row r="13" spans="1:24">
       <c r="B13">
         <f>LOG(32,2)</f>
         <v>5</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I13" s="3">
         <v>332</v>
       </c>
-      <c r="J13" s="9">
+      <c r="J13" s="8">
         <f>$I$4*$I$4*$I$5</f>
         <v>8.450000000000002E-2</v>
       </c>
       <c r="K13">
         <v>3</v>
       </c>
-      <c r="L13" s="9">
-        <f t="shared" ref="L13:L38" si="6">J13*K13</f>
+      <c r="L13" s="8">
+        <f t="shared" ref="L13:L38" si="7">J13*K13</f>
         <v>0.25350000000000006</v>
       </c>
-      <c r="M13" s="9">
-        <f>-J13*LOG(J13,2)</f>
+      <c r="M13" s="8">
+        <f t="shared" si="4"/>
         <v>0.30123445968810186</v>
       </c>
-      <c r="N13" s="9">
+      <c r="N13" s="8">
         <f>SUM(J12:J15)</f>
         <v>0.52812500000000007</v>
       </c>
       <c r="Q13">
         <v>21</v>
       </c>
-      <c r="R13" s="9">
+      <c r="R13" s="8">
         <f>$R$5*$R$4</f>
         <v>0.12</v>
       </c>
       <c r="S13">
-        <v>3</v>
-      </c>
-      <c r="T13" s="9">
-        <f t="shared" si="4"/>
-        <v>0.36</v>
-      </c>
-      <c r="U13" s="9">
+        <v>2</v>
+      </c>
+      <c r="T13" s="8">
         <f t="shared" si="5"/>
+        <v>0.24</v>
+      </c>
+      <c r="U13" s="8">
+        <f t="shared" si="6"/>
         <v>0.36706724268642821</v>
       </c>
-      <c r="V13" s="9">
+      <c r="V13" s="8">
         <f>SUM(R13:R26)</f>
         <v>0.51999999999999991</v>
       </c>
     </row>
-    <row r="14" spans="1:23">
-      <c r="I14" s="5">
+    <row r="14" spans="1:24">
+      <c r="I14" s="4">
         <v>233</v>
       </c>
-      <c r="J14" s="9">
+      <c r="J14" s="8">
         <f>$I$5*$I$4*$I$4</f>
         <v>8.4500000000000006E-2</v>
       </c>
       <c r="K14">
         <v>3</v>
       </c>
-      <c r="L14" s="9">
-        <f t="shared" si="6"/>
+      <c r="L14" s="8">
+        <f t="shared" si="7"/>
         <v>0.2535</v>
       </c>
-      <c r="M14" s="9">
-        <f>-J14*LOG(J14,2)</f>
+      <c r="M14" s="8">
+        <f t="shared" si="4"/>
         <v>0.30123445968810181</v>
       </c>
-      <c r="N14" s="9">
+      <c r="N14" s="8">
         <f>SUM(J16:J38)</f>
         <v>0.47187500000000016</v>
       </c>
       <c r="Q14">
         <v>14</v>
       </c>
-      <c r="R14" s="9">
+      <c r="R14" s="8">
         <f>$R$4*$R$6</f>
         <v>0.09</v>
       </c>
       <c r="S14">
         <v>4</v>
       </c>
-      <c r="T14" s="9">
-        <f t="shared" si="4"/>
+      <c r="T14" s="8">
+        <f t="shared" si="5"/>
         <v>0.36</v>
       </c>
-      <c r="U14" s="9">
-        <f t="shared" si="5"/>
+      <c r="U14" s="8">
+        <f t="shared" si="6"/>
         <v>0.31265380694991712</v>
       </c>
-      <c r="V14" s="9">
+      <c r="V14" s="8">
         <f>SUM(R14:R26)</f>
         <v>0.40000000000000013</v>
       </c>
     </row>
-    <row r="15" spans="1:23">
-      <c r="I15" s="6">
+    <row r="15" spans="1:24">
+      <c r="I15" s="5">
         <v>323</v>
       </c>
-      <c r="J15" s="9">
+      <c r="J15" s="8">
         <f>$I$4*$I$5*$I$4</f>
         <v>8.4500000000000006E-2</v>
       </c>
       <c r="K15">
         <v>4</v>
       </c>
-      <c r="L15" s="9">
-        <f t="shared" si="6"/>
+      <c r="L15" s="8">
+        <f t="shared" si="7"/>
         <v>0.33800000000000002</v>
       </c>
-      <c r="M15" s="9">
-        <f>-J15*LOG(J15,2)</f>
+      <c r="M15" s="8">
+        <f t="shared" si="4"/>
         <v>0.30123445968810181</v>
       </c>
       <c r="Q15">
         <v>41</v>
       </c>
-      <c r="R15" s="9">
+      <c r="R15" s="8">
         <f>$R$6*$R$4</f>
         <v>0.09</v>
       </c>
       <c r="S15">
         <v>4</v>
       </c>
-      <c r="T15" s="9">
-        <f t="shared" si="4"/>
+      <c r="T15" s="8">
+        <f t="shared" si="5"/>
         <v>0.36</v>
       </c>
-      <c r="U15" s="9">
-        <f t="shared" si="5"/>
+      <c r="U15" s="8">
+        <f t="shared" si="6"/>
         <v>0.31265380694991712</v>
       </c>
-      <c r="V15" s="9"/>
-    </row>
-    <row r="16" spans="1:23">
-      <c r="I16" s="4">
+      <c r="V15" s="8"/>
+    </row>
+    <row r="16" spans="1:24">
+      <c r="I16" s="3">
         <v>133</v>
       </c>
-      <c r="J16" s="9">
+      <c r="J16" s="8">
         <f>$I$6*$I$4*$I$4</f>
         <v>6.3375000000000001E-2</v>
       </c>
       <c r="K16">
         <v>4</v>
       </c>
-      <c r="L16" s="9">
-        <f t="shared" si="6"/>
+      <c r="L16" s="8">
+        <f t="shared" si="7"/>
         <v>0.2535</v>
       </c>
-      <c r="M16" s="9">
-        <f>-J16*LOG(J16,2)</f>
+      <c r="M16" s="8">
+        <f t="shared" si="4"/>
         <v>0.25222884628287312</v>
       </c>
-      <c r="N16" s="9">
+      <c r="N16" s="8">
         <f>SUM(J15:J18)</f>
         <v>0.27462500000000001</v>
       </c>
       <c r="Q16">
         <v>22</v>
       </c>
-      <c r="R16" s="9">
+      <c r="R16" s="8">
         <f>$R$5*$R$5</f>
         <v>4.0000000000000008E-2</v>
       </c>
       <c r="S16">
-        <v>3</v>
-      </c>
-      <c r="T16" s="9">
-        <f t="shared" si="4"/>
-        <v>0.12000000000000002</v>
-      </c>
-      <c r="U16" s="9">
+        <v>5</v>
+      </c>
+      <c r="T16" s="8">
         <f t="shared" si="5"/>
+        <v>0.20000000000000004</v>
+      </c>
+      <c r="U16" s="8">
+        <f t="shared" si="6"/>
         <v>0.18575424759098902</v>
       </c>
-      <c r="V16" s="9">
+      <c r="V16" s="8">
         <f>SUM(R16:R26)</f>
         <v>0.22000000000000003</v>
       </c>
-      <c r="W16" s="9">
+      <c r="W16" s="8">
         <f>SUM(R16:R18)</f>
         <v>0.1</v>
       </c>
     </row>
-    <row r="17" spans="9:23">
-      <c r="I17" s="5">
+    <row r="17" spans="9:24">
+      <c r="I17" s="4">
         <v>313</v>
       </c>
-      <c r="J17" s="9">
+      <c r="J17" s="8">
         <f>$I$4*$I$6*$I$4</f>
         <v>6.3375000000000001E-2</v>
       </c>
       <c r="K17">
         <v>4</v>
       </c>
-      <c r="L17" s="9">
-        <f t="shared" si="6"/>
+      <c r="L17" s="8">
+        <f t="shared" si="7"/>
         <v>0.2535</v>
       </c>
-      <c r="M17" s="9">
-        <f>-J17*LOG(J17,2)</f>
+      <c r="M17" s="8">
+        <f t="shared" si="4"/>
         <v>0.25222884628287312</v>
       </c>
-      <c r="N17" s="9">
+      <c r="N17" s="8">
         <f>SUM(J19:J38)</f>
         <v>0.28175</v>
       </c>
       <c r="Q17">
         <v>13</v>
       </c>
-      <c r="R17" s="9">
+      <c r="R17" s="8">
         <f>$R$4*$R$7</f>
         <v>0.03</v>
       </c>
       <c r="S17">
-        <v>4</v>
-      </c>
-      <c r="T17" s="9">
-        <f t="shared" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="U17" s="9">
+        <v>6</v>
+      </c>
+      <c r="T17" s="8">
         <f t="shared" si="5"/>
+        <v>0.18</v>
+      </c>
+      <c r="U17" s="8">
+        <f t="shared" si="6"/>
         <v>0.15176681067160708</v>
       </c>
     </row>
-    <row r="18" spans="9:23">
-      <c r="I18" s="6">
+    <row r="18" spans="9:24">
+      <c r="I18" s="5">
         <v>331</v>
       </c>
-      <c r="J18" s="9">
+      <c r="J18" s="8">
         <f>$I$4*$I$4*$I$6</f>
         <v>6.3375000000000001E-2</v>
       </c>
       <c r="K18">
         <v>4</v>
       </c>
-      <c r="L18" s="9">
-        <f t="shared" si="6"/>
+      <c r="L18" s="8">
+        <f t="shared" si="7"/>
         <v>0.2535</v>
       </c>
-      <c r="M18" s="9">
-        <f>-J18*LOG(J18,2)</f>
+      <c r="M18" s="8">
+        <f t="shared" si="4"/>
         <v>0.25222884628287312</v>
       </c>
       <c r="Q18">
         <v>24</v>
       </c>
-      <c r="R18" s="9">
+      <c r="R18" s="8">
         <f>$R$5*$R$6</f>
         <v>0.03</v>
       </c>
       <c r="S18">
-        <v>4</v>
-      </c>
-      <c r="T18" s="9">
-        <f t="shared" si="4"/>
-        <v>0.12</v>
-      </c>
-      <c r="U18" s="9">
+        <v>6</v>
+      </c>
+      <c r="T18" s="8">
         <f t="shared" si="5"/>
+        <v>0.18</v>
+      </c>
+      <c r="U18" s="8">
+        <f t="shared" si="6"/>
         <v>0.15176681067160708</v>
       </c>
     </row>
-    <row r="19" spans="9:23">
-      <c r="I19" s="4">
+    <row r="19" spans="9:24">
+      <c r="I19" s="3">
         <v>223</v>
       </c>
-      <c r="J19" s="9">
+      <c r="J19" s="8">
         <f>$I$5*$I$5*$I$4</f>
         <v>2.6000000000000006E-2</v>
       </c>
       <c r="K19">
         <v>6</v>
       </c>
-      <c r="L19" s="9">
-        <f t="shared" si="6"/>
+      <c r="L19" s="8">
+        <f t="shared" si="7"/>
         <v>0.15600000000000003</v>
       </c>
-      <c r="M19" s="9">
-        <f>-J19*LOG(J19,2)</f>
+      <c r="M19" s="8">
+        <f t="shared" si="4"/>
         <v>0.13689895872954588</v>
       </c>
       <c r="Q19">
         <v>31</v>
       </c>
-      <c r="R19" s="9">
+      <c r="R19" s="8">
         <f>$R$7*$R$4</f>
         <v>0.03</v>
       </c>
       <c r="S19">
-        <v>5</v>
-      </c>
-      <c r="T19" s="9">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="U19" s="9">
+        <v>6</v>
+      </c>
+      <c r="T19" s="8">
         <f t="shared" si="5"/>
+        <v>0.18</v>
+      </c>
+      <c r="U19" s="8">
+        <f t="shared" si="6"/>
         <v>0.15176681067160708</v>
       </c>
-      <c r="W19" s="9">
+      <c r="W19" s="8">
         <f>SUM(R19:R26)</f>
         <v>0.12000000000000002</v>
       </c>
     </row>
-    <row r="20" spans="9:23" ht="13.5" thickBot="1">
-      <c r="I20" s="7">
+    <row r="20" spans="9:24" ht="13.5" thickBot="1">
+      <c r="I20" s="6">
         <v>232</v>
       </c>
-      <c r="J20" s="9">
+      <c r="J20" s="8">
         <f>$I$5*$I$4*$I$5</f>
         <v>2.6000000000000002E-2</v>
       </c>
       <c r="K20">
         <v>6</v>
       </c>
-      <c r="L20" s="9">
-        <f t="shared" si="6"/>
+      <c r="L20" s="8">
+        <f t="shared" si="7"/>
         <v>0.15600000000000003</v>
       </c>
-      <c r="M20" s="9">
-        <f>-J20*LOG(J20,2)</f>
+      <c r="M20" s="8">
+        <f t="shared" si="4"/>
         <v>0.13689895872954588</v>
       </c>
-      <c r="N20" s="9">
+      <c r="N20" s="8">
         <f>SUM(J19:J24)</f>
         <v>0.13650000000000001</v>
       </c>
       <c r="Q20">
         <v>42</v>
       </c>
-      <c r="R20" s="9">
+      <c r="R20" s="8">
         <f>$R$6*$R$5</f>
         <v>0.03</v>
       </c>
       <c r="S20">
-        <v>5</v>
-      </c>
-      <c r="T20" s="9">
-        <f t="shared" si="4"/>
-        <v>0.15</v>
-      </c>
-      <c r="U20" s="9">
+        <v>6</v>
+      </c>
+      <c r="T20" s="8">
         <f t="shared" si="5"/>
+        <v>0.18</v>
+      </c>
+      <c r="U20" s="8">
+        <f t="shared" si="6"/>
         <v>0.15176681067160708</v>
       </c>
     </row>
-    <row r="21" spans="9:23">
-      <c r="I21" s="3">
+    <row r="21" spans="9:24">
+      <c r="I21" s="2">
         <v>322</v>
       </c>
-      <c r="J21" s="9">
+      <c r="J21" s="8">
         <f>$I$4*$I$5*$I$5</f>
         <v>2.6000000000000002E-2</v>
       </c>
       <c r="K21">
         <v>6</v>
       </c>
-      <c r="L21" s="9">
-        <f t="shared" si="6"/>
+      <c r="L21" s="8">
+        <f t="shared" si="7"/>
         <v>0.15600000000000003</v>
       </c>
-      <c r="M21" s="9">
-        <f>-J21*LOG(J21,2)</f>
+      <c r="M21" s="8">
+        <f t="shared" si="4"/>
         <v>0.13689895872954588</v>
       </c>
-      <c r="N21" s="9">
+      <c r="N21" s="8">
         <f>SUM(J25:J38)</f>
         <v>0.14525000000000002</v>
       </c>
       <c r="Q21">
         <v>44</v>
       </c>
-      <c r="R21" s="9">
+      <c r="R21" s="8">
         <f>$R$6*$R$6</f>
         <v>2.2499999999999999E-2</v>
       </c>
       <c r="S21">
-        <v>5</v>
-      </c>
-      <c r="T21" s="9">
-        <f t="shared" si="4"/>
-        <v>0.11249999999999999</v>
-      </c>
-      <c r="U21" s="9">
+        <v>7</v>
+      </c>
+      <c r="T21" s="8">
         <f t="shared" si="5"/>
+        <v>0.1575</v>
+      </c>
+      <c r="U21" s="8">
+        <f t="shared" si="6"/>
         <v>0.12316345173747927</v>
       </c>
-      <c r="W21" s="9">
+      <c r="W21" s="8">
         <f>SUM(R21:R22)</f>
         <v>3.2500000000000001E-2</v>
       </c>
     </row>
-    <row r="22" spans="9:23">
-      <c r="I22" s="4">
+    <row r="22" spans="9:24">
+      <c r="I22" s="3">
         <v>132</v>
       </c>
-      <c r="J22" s="9">
+      <c r="J22" s="8">
         <f>$I$6*$I$4*$I$5</f>
         <v>1.9500000000000003E-2</v>
       </c>
       <c r="K22">
         <v>6</v>
       </c>
-      <c r="L22" s="9">
-        <f t="shared" si="6"/>
+      <c r="L22" s="8">
+        <f t="shared" si="7"/>
         <v>0.11700000000000002</v>
       </c>
-      <c r="M22" s="9">
-        <f>-J22*LOG(J22,2)</f>
+      <c r="M22" s="8">
+        <f t="shared" si="4"/>
         <v>0.11076745028309688</v>
       </c>
       <c r="Q22">
         <v>23</v>
       </c>
-      <c r="R22" s="9">
+      <c r="R22" s="8">
         <f>$R$5*$R$7</f>
         <v>1.0000000000000002E-2</v>
       </c>
       <c r="S22">
-        <v>6</v>
-      </c>
-      <c r="T22" s="9">
-        <f t="shared" si="4"/>
-        <v>6.0000000000000012E-2</v>
-      </c>
-      <c r="U22" s="9">
+        <v>7</v>
+      </c>
+      <c r="T22" s="8">
         <f t="shared" si="5"/>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="U22" s="8">
+        <f t="shared" si="6"/>
         <v>6.6438561897747259E-2</v>
       </c>
     </row>
-    <row r="23" spans="9:23">
-      <c r="I23" s="5">
+    <row r="23" spans="9:24">
+      <c r="I23" s="4">
         <v>312</v>
       </c>
-      <c r="J23" s="9">
+      <c r="J23" s="8">
         <f>$I$4*$I$6*$I$5</f>
         <v>1.9500000000000003E-2</v>
       </c>
       <c r="K23">
         <v>6</v>
       </c>
-      <c r="L23" s="9">
-        <f t="shared" si="6"/>
+      <c r="L23" s="8">
+        <f t="shared" si="7"/>
         <v>0.11700000000000002</v>
       </c>
-      <c r="M23" s="9">
-        <f>-J23*LOG(J23,2)</f>
+      <c r="M23" s="8">
+        <f t="shared" si="4"/>
         <v>0.11076745028309688</v>
       </c>
       <c r="Q23">
         <v>32</v>
       </c>
-      <c r="R23" s="9">
+      <c r="R23" s="8">
         <f>$R$7*$R$5</f>
         <v>1.0000000000000002E-2</v>
       </c>
       <c r="S23">
-        <v>6</v>
-      </c>
-      <c r="T23" s="9">
-        <f t="shared" si="4"/>
-        <v>6.0000000000000012E-2</v>
-      </c>
-      <c r="U23" s="9">
+        <v>8</v>
+      </c>
+      <c r="T23" s="8">
         <f t="shared" si="5"/>
+        <v>8.0000000000000016E-2</v>
+      </c>
+      <c r="U23" s="8">
+        <f t="shared" si="6"/>
         <v>6.6438561897747259E-2</v>
       </c>
-      <c r="W23" s="9">
+      <c r="W23" s="8">
         <f>SUM(R23:R26)</f>
         <v>2.7500000000000004E-2</v>
       </c>
     </row>
-    <row r="24" spans="9:23">
-      <c r="I24" s="6">
+    <row r="24" spans="9:24">
+      <c r="I24" s="5">
         <v>123</v>
       </c>
-      <c r="J24" s="9">
+      <c r="J24" s="8">
         <f>$I$6*$I$5*$I$4</f>
         <v>1.95E-2</v>
       </c>
       <c r="K24">
         <v>6</v>
       </c>
-      <c r="L24" s="9">
-        <f t="shared" si="6"/>
+      <c r="L24" s="8">
+        <f t="shared" si="7"/>
         <v>0.11699999999999999</v>
       </c>
-      <c r="M24" s="9">
-        <f>-J24*LOG(J24,2)</f>
+      <c r="M24" s="8">
+        <f t="shared" si="4"/>
         <v>0.11076745028309687</v>
       </c>
       <c r="Q24">
         <v>34</v>
       </c>
-      <c r="R24" s="9">
+      <c r="R24" s="8">
         <f>$R$7*$R$6</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="S24">
-        <v>7</v>
-      </c>
-      <c r="T24" s="9">
-        <f t="shared" si="4"/>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="U24" s="9">
+        <v>8</v>
+      </c>
+      <c r="T24" s="8">
         <f t="shared" si="5"/>
+        <v>0.06</v>
+      </c>
+      <c r="U24" s="8">
+        <f t="shared" si="6"/>
         <v>5.2941702667901769E-2</v>
       </c>
     </row>
-    <row r="25" spans="9:23">
-      <c r="I25" s="4">
+    <row r="25" spans="9:24">
+      <c r="I25" s="3">
         <v>213</v>
       </c>
-      <c r="J25" s="9">
+      <c r="J25" s="8">
         <f>$I$5*$I$6*$I$4</f>
         <v>1.95E-2</v>
       </c>
       <c r="K25">
         <v>6</v>
       </c>
-      <c r="L25" s="9">
-        <f t="shared" si="6"/>
+      <c r="L25" s="8">
+        <f t="shared" si="7"/>
         <v>0.11699999999999999</v>
       </c>
-      <c r="M25" s="9">
-        <f>-J25*LOG(J25,2)</f>
+      <c r="M25" s="8">
+        <f t="shared" si="4"/>
         <v>0.11076745028309687</v>
       </c>
       <c r="Q25">
         <v>43</v>
       </c>
-      <c r="R25" s="9">
+      <c r="R25" s="8">
         <f>$R$6*$R$7</f>
         <v>7.4999999999999997E-3</v>
       </c>
       <c r="S25">
-        <v>7</v>
-      </c>
-      <c r="T25" s="9">
-        <f t="shared" si="4"/>
-        <v>5.2499999999999998E-2</v>
-      </c>
-      <c r="U25" s="9">
+        <v>8</v>
+      </c>
+      <c r="T25" s="8">
         <f t="shared" si="5"/>
+        <v>0.06</v>
+      </c>
+      <c r="U25" s="8">
+        <f t="shared" si="6"/>
         <v>5.2941702667901769E-2</v>
       </c>
     </row>
-    <row r="26" spans="9:23">
-      <c r="I26" s="5">
+    <row r="26" spans="9:24">
+      <c r="I26" s="4">
         <v>231</v>
       </c>
-      <c r="J26" s="9">
+      <c r="J26" s="8">
         <f>$I$5*$I$4*$I$6</f>
         <v>1.95E-2</v>
       </c>
       <c r="K26">
         <v>6</v>
       </c>
-      <c r="L26" s="9">
-        <f t="shared" si="6"/>
+      <c r="L26" s="8">
+        <f t="shared" si="7"/>
         <v>0.11699999999999999</v>
       </c>
-      <c r="M26" s="9">
-        <f>-J26*LOG(J26,2)</f>
+      <c r="M26" s="8">
+        <f t="shared" si="4"/>
         <v>0.11076745028309687</v>
       </c>
       <c r="Q26">
         <v>33</v>
       </c>
-      <c r="R26" s="9">
+      <c r="R26" s="8">
         <f>$R$7*$R$7</f>
         <v>2.5000000000000005E-3</v>
       </c>
       <c r="S26">
-        <v>7</v>
-      </c>
-      <c r="T26" s="9">
-        <f t="shared" si="4"/>
-        <v>1.7500000000000002E-2</v>
-      </c>
-      <c r="U26" s="9">
+        <v>8</v>
+      </c>
+      <c r="T26" s="8">
         <f t="shared" si="5"/>
+        <v>2.0000000000000004E-2</v>
+      </c>
+      <c r="U26" s="8">
+        <f t="shared" si="6"/>
         <v>2.1609640474436816E-2</v>
       </c>
     </row>
-    <row r="27" spans="9:23">
-      <c r="I27" s="6">
+    <row r="27" spans="9:24">
+      <c r="I27" s="5">
         <v>321</v>
       </c>
-      <c r="J27" s="9">
+      <c r="J27" s="8">
         <f>$I$4*$I$5*$I$6</f>
         <v>1.95E-2</v>
       </c>
       <c r="K27">
         <v>6</v>
       </c>
-      <c r="L27" s="9">
-        <f t="shared" si="6"/>
+      <c r="L27" s="8">
+        <f t="shared" si="7"/>
         <v>0.11699999999999999</v>
       </c>
-      <c r="M27" s="9">
-        <f>-J27*LOG(J27,2)</f>
+      <c r="M27" s="8">
+        <f t="shared" si="4"/>
         <v>0.11076745028309687</v>
       </c>
-      <c r="T27" s="9">
+      <c r="T27" s="8">
         <f>SUM(T11:T26)</f>
-        <v>3.0550000000000002</v>
-      </c>
-      <c r="U27" s="9">
+        <v>3.287500000000001</v>
+      </c>
+      <c r="U27" s="8">
         <f>SUM(U11:U26)</f>
         <v>3.0664124386929901</v>
       </c>
-    </row>
-    <row r="28" spans="9:23">
-      <c r="I28" s="4">
+      <c r="X27">
+        <f>T27/U27</f>
+        <v>1.0720997470911793</v>
+      </c>
+    </row>
+    <row r="28" spans="9:24">
+      <c r="I28" s="3">
         <v>113</v>
       </c>
-      <c r="J28" s="9">
+      <c r="J28" s="8">
         <f>$I$6*$I$6*$I$4</f>
         <v>1.4624999999999999E-2</v>
       </c>
       <c r="K28">
         <v>7</v>
       </c>
-      <c r="L28" s="9">
-        <f t="shared" si="6"/>
+      <c r="L28" s="8">
+        <f t="shared" si="7"/>
         <v>0.10237499999999999</v>
       </c>
-      <c r="M28" s="9">
-        <f>-J28*LOG(J28,2)</f>
+      <c r="M28" s="8">
+        <f t="shared" si="4"/>
         <v>8.9145511139275727E-2</v>
       </c>
     </row>
-    <row r="29" spans="9:23" ht="13.5" thickBot="1">
-      <c r="I29" s="7">
+    <row r="29" spans="9:24" ht="13.5" thickBot="1">
+      <c r="I29" s="6">
         <v>131</v>
       </c>
-      <c r="J29" s="9">
+      <c r="J29" s="8">
         <f>$I$6*$I$4*$I$6</f>
         <v>1.4624999999999999E-2</v>
       </c>
       <c r="K29">
         <v>7</v>
       </c>
-      <c r="L29" s="9">
-        <f t="shared" si="6"/>
+      <c r="L29" s="8">
+        <f t="shared" si="7"/>
         <v>0.10237499999999999</v>
       </c>
-      <c r="M29" s="9">
-        <f>-J29*LOG(J29,2)</f>
+      <c r="M29" s="8">
+        <f t="shared" si="4"/>
         <v>8.9145511139275727E-2</v>
       </c>
     </row>
-    <row r="30" spans="9:23">
-      <c r="I30" s="3">
+    <row r="30" spans="9:24">
+      <c r="I30" s="2">
         <v>311</v>
       </c>
-      <c r="J30" s="9">
+      <c r="J30" s="8">
         <f>$I$4*$I$6*$I$6</f>
         <v>1.4624999999999999E-2</v>
       </c>
       <c r="K30">
         <v>7</v>
       </c>
-      <c r="L30" s="9">
-        <f t="shared" si="6"/>
+      <c r="L30" s="8">
+        <f t="shared" si="7"/>
         <v>0.10237499999999999</v>
       </c>
-      <c r="M30" s="9">
-        <f>-J30*LOG(J30,2)</f>
+      <c r="M30" s="8">
+        <f t="shared" si="4"/>
         <v>8.9145511139275727E-2</v>
       </c>
     </row>
-    <row r="31" spans="9:23">
-      <c r="I31" s="4">
+    <row r="31" spans="9:24">
+      <c r="I31" s="3">
         <v>222</v>
       </c>
-      <c r="J31" s="9">
+      <c r="J31" s="8">
         <f>$I$5*$I$5*$I$5</f>
         <v>8.0000000000000019E-3</v>
       </c>
       <c r="K31">
         <v>7</v>
       </c>
-      <c r="L31" s="9">
-        <f t="shared" si="6"/>
+      <c r="L31" s="8">
+        <f t="shared" si="7"/>
         <v>5.6000000000000015E-2</v>
       </c>
-      <c r="M31" s="9">
-        <f>-J31*LOG(J31,2)</f>
+      <c r="M31" s="8">
+        <f t="shared" si="4"/>
         <v>5.5726274277296713E-2</v>
       </c>
     </row>
-    <row r="32" spans="9:23">
-      <c r="I32" s="5">
+    <row r="32" spans="9:24">
+      <c r="I32" s="4">
         <v>221</v>
       </c>
-      <c r="J32" s="9">
+      <c r="J32" s="8">
         <f>$I$5*$I$5*$I$6</f>
         <v>6.000000000000001E-3</v>
       </c>
       <c r="K32">
         <v>8</v>
       </c>
-      <c r="L32" s="9">
-        <f t="shared" si="6"/>
+      <c r="L32" s="8">
+        <f t="shared" si="7"/>
         <v>4.8000000000000008E-2</v>
       </c>
-      <c r="M32" s="9">
-        <f>-J32*LOG(J32,2)</f>
+      <c r="M32" s="8">
+        <f t="shared" si="4"/>
         <v>4.42849307036456E-2</v>
       </c>
     </row>
     <row r="33" spans="9:13">
-      <c r="I33" s="6">
+      <c r="I33" s="5">
         <v>122</v>
       </c>
-      <c r="J33" s="9">
+      <c r="J33" s="8">
         <f>$I$6*$I$5*$I$5</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K33">
         <v>8</v>
       </c>
-      <c r="L33" s="9">
-        <f t="shared" si="6"/>
+      <c r="L33" s="8">
+        <f t="shared" si="7"/>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="M33" s="9">
-        <f>-J33*LOG(J33,2)</f>
+      <c r="M33" s="8">
+        <f t="shared" si="4"/>
         <v>4.4284930703645593E-2</v>
       </c>
     </row>
     <row r="34" spans="9:13">
-      <c r="I34" s="4">
+      <c r="I34" s="3">
         <v>212</v>
       </c>
-      <c r="J34" s="9">
+      <c r="J34" s="8">
         <f>$I$5*$I$6*$I$5</f>
         <v>6.0000000000000001E-3</v>
       </c>
       <c r="K34">
         <v>8</v>
       </c>
-      <c r="L34" s="9">
-        <f t="shared" si="6"/>
+      <c r="L34" s="8">
+        <f t="shared" si="7"/>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="M34" s="9">
-        <f>-J34*LOG(J34,2)</f>
+      <c r="M34" s="8">
+        <f t="shared" si="4"/>
         <v>4.4284930703645593E-2</v>
       </c>
     </row>
     <row r="35" spans="9:13">
-      <c r="I35" s="5">
+      <c r="I35" s="4">
         <v>112</v>
       </c>
-      <c r="J35" s="9">
+      <c r="J35" s="8">
         <f>$I$6*$I$6*$I$5</f>
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="K35">
         <v>9</v>
       </c>
-      <c r="L35" s="9">
-        <f t="shared" si="6"/>
+      <c r="L35" s="8">
+        <f t="shared" si="7"/>
         <v>4.0499999999999994E-2</v>
       </c>
-      <c r="M35" s="9">
-        <f>-J35*LOG(J35,2)</f>
+      <c r="M35" s="8">
+        <f t="shared" si="4"/>
         <v>3.5081366774488983E-2</v>
       </c>
     </row>
     <row r="36" spans="9:13">
-      <c r="I36" s="6">
+      <c r="I36" s="5">
         <v>121</v>
       </c>
-      <c r="J36" s="9">
+      <c r="J36" s="8">
         <f>$I$6*$I$5*$I$6</f>
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="K36">
         <v>9</v>
       </c>
-      <c r="L36" s="9">
-        <f t="shared" si="6"/>
+      <c r="L36" s="8">
+        <f t="shared" si="7"/>
         <v>4.0499999999999994E-2</v>
       </c>
-      <c r="M36" s="9">
-        <f>-J36*LOG(J36,2)</f>
+      <c r="M36" s="8">
+        <f t="shared" si="4"/>
         <v>3.5081366774488983E-2</v>
       </c>
     </row>
     <row r="37" spans="9:13">
-      <c r="I37" s="4">
+      <c r="I37" s="3">
         <v>211</v>
       </c>
-      <c r="J37" s="9">
+      <c r="J37" s="8">
         <f>$I$5*$I$6*$I$6</f>
         <v>4.4999999999999997E-3</v>
       </c>
       <c r="K37">
         <v>9</v>
       </c>
-      <c r="L37" s="9">
-        <f t="shared" si="6"/>
+      <c r="L37" s="8">
+        <f t="shared" si="7"/>
         <v>4.0499999999999994E-2</v>
       </c>
-      <c r="M37" s="9">
-        <f>-J37*LOG(J37,2)</f>
+      <c r="M37" s="8">
+        <f t="shared" si="4"/>
         <v>3.5081366774488983E-2</v>
       </c>
     </row>
     <row r="38" spans="9:13" ht="13.5" thickBot="1">
-      <c r="I38" s="7">
+      <c r="I38" s="6">
         <v>111</v>
       </c>
-      <c r="J38" s="9">
+      <c r="J38" s="8">
         <f>$I$6*$I$6*$I$6</f>
         <v>3.375E-3</v>
       </c>
       <c r="K38">
         <v>9</v>
       </c>
-      <c r="L38" s="9">
-        <f t="shared" si="6"/>
+      <c r="L38" s="8">
+        <f t="shared" si="7"/>
         <v>3.0374999999999999E-2</v>
       </c>
-      <c r="M38" s="9">
-        <f>-J38*LOG(J38,2)</f>
+      <c r="M38" s="8">
+        <f t="shared" si="4"/>
         <v>2.7711776640932839E-2</v>
       </c>
     </row>
     <row r="40" spans="9:13">
-      <c r="L40" s="9">
+      <c r="L40" s="8">
         <f>SUM(L12:L38)</f>
         <v>3.983750000000001</v>
       </c>
-      <c r="M40" s="9">
+      <c r="M40" s="8">
         <f>SUM(M12:M38)</f>
         <v>3.8366937089624384</v>
       </c>

--- a/Теория информации/TI.xlsx
+++ b/Теория информации/TI.xlsx
@@ -435,15 +435,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:X40"/>
+  <dimension ref="A2:AD40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="X28" sqref="X28"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <sheetData>
-    <row r="2" spans="1:24">
+    <row r="2" spans="1:30">
       <c r="A2" s="9">
         <v>15</v>
       </c>
@@ -468,8 +468,13 @@
       <c r="S2" s="9"/>
       <c r="T2" s="9"/>
       <c r="U2" s="9"/>
-    </row>
-    <row r="3" spans="1:24">
+      <c r="AA2" s="9">
+        <v>65</v>
+      </c>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+    </row>
+    <row r="3" spans="1:30">
       <c r="T3" t="s">
         <v>4</v>
       </c>
@@ -477,7 +482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:24">
+    <row r="4" spans="1:30">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -535,8 +540,17 @@
         <f>-R4*LOG(R4,2)</f>
         <v>0.44217935649972373</v>
       </c>
-    </row>
-    <row r="5" spans="1:24">
+      <c r="Z4">
+        <v>0.4</v>
+      </c>
+      <c r="AA4">
+        <v>0.6</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:30">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -590,8 +604,17 @@
         <f>-R5*LOG(R5,2)</f>
         <v>0.46438561897747244</v>
       </c>
-    </row>
-    <row r="6" spans="1:24">
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0.4</v>
+      </c>
+      <c r="AB5">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:30">
       <c r="A6" t="s">
         <v>2</v>
       </c>
@@ -649,8 +672,17 @@
         <f>-R6*LOG(R6,2)</f>
         <v>0.41054483912493089</v>
       </c>
-    </row>
-    <row r="7" spans="1:24">
+      <c r="Z6">
+        <v>0.6</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:30">
       <c r="L7">
         <f>I5*I5</f>
         <v>4.0000000000000008E-2</v>
@@ -680,7 +712,7 @@
         <v>0.21609640474436814</v>
       </c>
     </row>
-    <row r="8" spans="1:24">
+    <row r="8" spans="1:30">
       <c r="L8">
         <f>I5*I4</f>
         <v>0.13</v>
@@ -708,8 +740,20 @@
         <f>T8/U8</f>
         <v>1.0435647728339994</v>
       </c>
-    </row>
-    <row r="9" spans="1:24">
+      <c r="Z8">
+        <f>-Z4*LOG(Z4,2)</f>
+        <v>0.52877123795494485</v>
+      </c>
+      <c r="AA8">
+        <f t="shared" ref="AA8:AB8" si="3">-AA4*LOG(AA4,2)</f>
+        <v>0.44217935649972373</v>
+      </c>
+      <c r="AD8">
+        <f>SUM(Z8:AB8)</f>
+        <v>0.97095059445466858</v>
+      </c>
+    </row>
+    <row r="9" spans="1:30">
       <c r="B9">
         <f>B4*LOG(1/B4,2)+B5*LOG(1/B5,2)+B6*LOG(1/B6,2)</f>
         <v>1.278897902987479</v>
@@ -723,7 +767,7 @@
         <v>0.77863215415975162</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" ref="F9" si="3">-(F4*LOG(F4,2)+F6*LOG(F6,2))</f>
+        <f t="shared" ref="F9" si="4">-(F4*LOG(F4,2)+F6*LOG(F6,2))</f>
         <v>0.77437216598845993</v>
       </c>
       <c r="G9" s="1">
@@ -741,8 +785,34 @@
         <f>-L9*LOG(L9,2)</f>
         <v>0.52515767835059834</v>
       </c>
-    </row>
-    <row r="11" spans="1:24" ht="13.5" thickBot="1">
+      <c r="AA9">
+        <f t="shared" ref="Z9:AB9" si="5">-AA5*LOG(AA5,2)</f>
+        <v>0.52877123795494485</v>
+      </c>
+      <c r="AB9">
+        <f t="shared" si="5"/>
+        <v>0.44217935649972373</v>
+      </c>
+      <c r="AD9">
+        <f t="shared" ref="AD9:AD10" si="6">SUM(Z9:AB9)</f>
+        <v>0.97095059445466858</v>
+      </c>
+    </row>
+    <row r="10" spans="1:30">
+      <c r="Z10">
+        <f t="shared" ref="Z10:AB10" si="7">-Z6*LOG(Z6,2)</f>
+        <v>0.44217935649972373</v>
+      </c>
+      <c r="AB10">
+        <f t="shared" si="7"/>
+        <v>0.52877123795494485</v>
+      </c>
+      <c r="AD10">
+        <f t="shared" si="6"/>
+        <v>0.97095059445466858</v>
+      </c>
+    </row>
+    <row r="11" spans="1:30" ht="13.5" thickBot="1">
       <c r="M11" t="s">
         <v>3</v>
       </c>
@@ -765,7 +835,7 @@
         <v>0.53061522779966841</v>
       </c>
     </row>
-    <row r="12" spans="1:24">
+    <row r="12" spans="1:30">
       <c r="I12" s="2">
         <v>333</v>
       </c>
@@ -781,7 +851,7 @@
         <v>0.54925000000000013</v>
       </c>
       <c r="M12" s="8">
-        <f t="shared" ref="M12:M38" si="4">-J12*LOG(J12,2)</f>
+        <f t="shared" ref="M12:M38" si="8">-J12*LOG(J12,2)</f>
         <v>0.51202873639183344</v>
       </c>
       <c r="Q12">
@@ -795,19 +865,23 @@
         <v>2</v>
       </c>
       <c r="T12" s="8">
-        <f t="shared" ref="T12:T26" si="5">R12*S12</f>
+        <f t="shared" ref="T12:T26" si="9">R12*S12</f>
         <v>0.24</v>
       </c>
       <c r="U12" s="8">
-        <f t="shared" ref="U12:U26" si="6">-R12*LOG(R12,2)</f>
+        <f t="shared" ref="U12:U26" si="10">-R12*LOG(R12,2)</f>
         <v>0.36706724268642821</v>
       </c>
       <c r="V12" s="8">
         <f>SUM(R11:R12)</f>
         <v>0.48</v>
       </c>
-    </row>
-    <row r="13" spans="1:24">
+      <c r="Z12">
+        <f>10*(1-0.97)</f>
+        <v>0.30000000000000027</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30">
       <c r="B13">
         <f>LOG(32,2)</f>
         <v>5</v>
@@ -823,11 +897,11 @@
         <v>3</v>
       </c>
       <c r="L13" s="8">
-        <f t="shared" ref="L13:L38" si="7">J13*K13</f>
+        <f t="shared" ref="L13:L38" si="11">J13*K13</f>
         <v>0.25350000000000006</v>
       </c>
       <c r="M13" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.30123445968810186</v>
       </c>
       <c r="N13" s="8">
@@ -845,19 +919,23 @@
         <v>2</v>
       </c>
       <c r="T13" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.24</v>
       </c>
       <c r="U13" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.36706724268642821</v>
       </c>
       <c r="V13" s="8">
         <f>SUM(R13:R26)</f>
         <v>0.51999999999999991</v>
       </c>
-    </row>
-    <row r="14" spans="1:24">
+      <c r="Z13">
+        <f>LOG(3,2)</f>
+        <v>1.5849625007211563</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30">
       <c r="I14" s="4">
         <v>233</v>
       </c>
@@ -869,11 +947,11 @@
         <v>3</v>
       </c>
       <c r="L14" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.2535</v>
       </c>
       <c r="M14" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.30123445968810181</v>
       </c>
       <c r="N14" s="8">
@@ -891,11 +969,11 @@
         <v>4</v>
       </c>
       <c r="T14" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.36</v>
       </c>
       <c r="U14" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.31265380694991712</v>
       </c>
       <c r="V14" s="8">
@@ -903,7 +981,7 @@
         <v>0.40000000000000013</v>
       </c>
     </row>
-    <row r="15" spans="1:24">
+    <row r="15" spans="1:30">
       <c r="I15" s="5">
         <v>323</v>
       </c>
@@ -915,11 +993,11 @@
         <v>4</v>
       </c>
       <c r="L15" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.33800000000000002</v>
       </c>
       <c r="M15" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.30123445968810181</v>
       </c>
       <c r="Q15">
@@ -933,16 +1011,16 @@
         <v>4</v>
       </c>
       <c r="T15" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.36</v>
       </c>
       <c r="U15" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.31265380694991712</v>
       </c>
       <c r="V15" s="8"/>
     </row>
-    <row r="16" spans="1:24">
+    <row r="16" spans="1:30">
       <c r="I16" s="3">
         <v>133</v>
       </c>
@@ -954,11 +1032,11 @@
         <v>4</v>
       </c>
       <c r="L16" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.2535</v>
       </c>
       <c r="M16" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.25222884628287312</v>
       </c>
       <c r="N16" s="8">
@@ -976,11 +1054,11 @@
         <v>5</v>
       </c>
       <c r="T16" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.20000000000000004</v>
       </c>
       <c r="U16" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.18575424759098902</v>
       </c>
       <c r="V16" s="8">
@@ -1004,11 +1082,11 @@
         <v>4</v>
       </c>
       <c r="L17" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.2535</v>
       </c>
       <c r="M17" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.25222884628287312</v>
       </c>
       <c r="N17" s="8">
@@ -1026,11 +1104,11 @@
         <v>6</v>
       </c>
       <c r="T17" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.18</v>
       </c>
       <c r="U17" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.15176681067160708</v>
       </c>
     </row>
@@ -1046,11 +1124,11 @@
         <v>4</v>
       </c>
       <c r="L18" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.2535</v>
       </c>
       <c r="M18" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.25222884628287312</v>
       </c>
       <c r="Q18">
@@ -1064,11 +1142,11 @@
         <v>6</v>
       </c>
       <c r="T18" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.18</v>
       </c>
       <c r="U18" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.15176681067160708</v>
       </c>
     </row>
@@ -1084,11 +1162,11 @@
         <v>6</v>
       </c>
       <c r="L19" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.15600000000000003</v>
       </c>
       <c r="M19" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.13689895872954588</v>
       </c>
       <c r="Q19">
@@ -1102,11 +1180,11 @@
         <v>6</v>
       </c>
       <c r="T19" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.18</v>
       </c>
       <c r="U19" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.15176681067160708</v>
       </c>
       <c r="W19" s="8">
@@ -1126,11 +1204,11 @@
         <v>6</v>
       </c>
       <c r="L20" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.15600000000000003</v>
       </c>
       <c r="M20" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.13689895872954588</v>
       </c>
       <c r="N20" s="8">
@@ -1148,11 +1226,11 @@
         <v>6</v>
       </c>
       <c r="T20" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.18</v>
       </c>
       <c r="U20" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.15176681067160708</v>
       </c>
     </row>
@@ -1168,11 +1246,11 @@
         <v>6</v>
       </c>
       <c r="L21" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.15600000000000003</v>
       </c>
       <c r="M21" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.13689895872954588</v>
       </c>
       <c r="N21" s="8">
@@ -1190,11 +1268,11 @@
         <v>7</v>
       </c>
       <c r="T21" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.1575</v>
       </c>
       <c r="U21" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>0.12316345173747927</v>
       </c>
       <c r="W21" s="8">
@@ -1214,11 +1292,11 @@
         <v>6</v>
       </c>
       <c r="L22" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.11700000000000002</v>
       </c>
       <c r="M22" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.11076745028309688</v>
       </c>
       <c r="Q22">
@@ -1232,11 +1310,11 @@
         <v>7</v>
       </c>
       <c r="T22" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="U22" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6438561897747259E-2</v>
       </c>
     </row>
@@ -1252,11 +1330,11 @@
         <v>6</v>
       </c>
       <c r="L23" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.11700000000000002</v>
       </c>
       <c r="M23" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.11076745028309688</v>
       </c>
       <c r="Q23">
@@ -1270,11 +1348,11 @@
         <v>8</v>
       </c>
       <c r="T23" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8.0000000000000016E-2</v>
       </c>
       <c r="U23" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>6.6438561897747259E-2</v>
       </c>
       <c r="W23" s="8">
@@ -1294,11 +1372,11 @@
         <v>6</v>
       </c>
       <c r="L24" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.11699999999999999</v>
       </c>
       <c r="M24" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.11076745028309687</v>
       </c>
       <c r="Q24">
@@ -1312,11 +1390,11 @@
         <v>8</v>
       </c>
       <c r="T24" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.06</v>
       </c>
       <c r="U24" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.2941702667901769E-2</v>
       </c>
     </row>
@@ -1332,11 +1410,11 @@
         <v>6</v>
       </c>
       <c r="L25" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.11699999999999999</v>
       </c>
       <c r="M25" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.11076745028309687</v>
       </c>
       <c r="Q25">
@@ -1350,11 +1428,11 @@
         <v>8</v>
       </c>
       <c r="T25" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>0.06</v>
       </c>
       <c r="U25" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>5.2941702667901769E-2</v>
       </c>
     </row>
@@ -1370,11 +1448,11 @@
         <v>6</v>
       </c>
       <c r="L26" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.11699999999999999</v>
       </c>
       <c r="M26" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.11076745028309687</v>
       </c>
       <c r="Q26">
@@ -1388,11 +1466,11 @@
         <v>8</v>
       </c>
       <c r="T26" s="8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>2.0000000000000004E-2</v>
       </c>
       <c r="U26" s="8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="10"/>
         <v>2.1609640474436816E-2</v>
       </c>
     </row>
@@ -1408,11 +1486,11 @@
         <v>6</v>
       </c>
       <c r="L27" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.11699999999999999</v>
       </c>
       <c r="M27" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>0.11076745028309687</v>
       </c>
       <c r="T27" s="8">
@@ -1440,11 +1518,11 @@
         <v>7</v>
       </c>
       <c r="L28" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.10237499999999999</v>
       </c>
       <c r="M28" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.9145511139275727E-2</v>
       </c>
     </row>
@@ -1460,11 +1538,11 @@
         <v>7</v>
       </c>
       <c r="L29" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.10237499999999999</v>
       </c>
       <c r="M29" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.9145511139275727E-2</v>
       </c>
     </row>
@@ -1480,11 +1558,11 @@
         <v>7</v>
       </c>
       <c r="L30" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>0.10237499999999999</v>
       </c>
       <c r="M30" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>8.9145511139275727E-2</v>
       </c>
     </row>
@@ -1500,11 +1578,11 @@
         <v>7</v>
       </c>
       <c r="L31" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>5.6000000000000015E-2</v>
       </c>
       <c r="M31" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>5.5726274277296713E-2</v>
       </c>
     </row>
@@ -1520,11 +1598,11 @@
         <v>8</v>
       </c>
       <c r="L32" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.8000000000000008E-2</v>
       </c>
       <c r="M32" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.42849307036456E-2</v>
       </c>
     </row>
@@ -1540,11 +1618,11 @@
         <v>8</v>
       </c>
       <c r="L33" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="M33" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.4284930703645593E-2</v>
       </c>
     </row>
@@ -1560,11 +1638,11 @@
         <v>8</v>
       </c>
       <c r="L34" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.8000000000000001E-2</v>
       </c>
       <c r="M34" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>4.4284930703645593E-2</v>
       </c>
     </row>
@@ -1580,11 +1658,11 @@
         <v>9</v>
       </c>
       <c r="L35" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.0499999999999994E-2</v>
       </c>
       <c r="M35" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.5081366774488983E-2</v>
       </c>
     </row>
@@ -1600,11 +1678,11 @@
         <v>9</v>
       </c>
       <c r="L36" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.0499999999999994E-2</v>
       </c>
       <c r="M36" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.5081366774488983E-2</v>
       </c>
     </row>
@@ -1620,11 +1698,11 @@
         <v>9</v>
       </c>
       <c r="L37" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>4.0499999999999994E-2</v>
       </c>
       <c r="M37" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>3.5081366774488983E-2</v>
       </c>
     </row>
@@ -1640,11 +1718,11 @@
         <v>9</v>
       </c>
       <c r="L38" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="11"/>
         <v>3.0374999999999999E-2</v>
       </c>
       <c r="M38" s="8">
-        <f t="shared" si="4"/>
+        <f t="shared" si="8"/>
         <v>2.7711776640932839E-2</v>
       </c>
     </row>
@@ -1662,11 +1740,12 @@
   <sortState ref="Q11:R26">
     <sortCondition descending="1" ref="R11:R26"/>
   </sortState>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="D2:G2"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="R2:U2"/>
+    <mergeCell ref="AA2:AC2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
